--- a/Completed Projects/Daraz Office/NASTP_DARAZ_SAKA_MEP_BOQ.xlsx
+++ b/Completed Projects/Daraz Office/NASTP_DARAZ_SAKA_MEP_BOQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Daraz Office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Daraz Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B06A86C-7C7C-4725-A489-D9FC1608770A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA57FC-CD2B-4515-901F-80D20C4A4172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,11 @@
     <sheet name="HVAC" sheetId="2" r:id="rId3"/>
     <sheet name="Plumbing" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$C$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$C$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Air Conditionioning work'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">HVAC!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Plumbing!$1:$3</definedName>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="134">
   <si>
     <r>
       <rPr>
@@ -2207,9 +2210,6 @@
     <t>HVAC</t>
   </si>
   <si>
-    <t>PLUMBING</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grand Total Amount </t>
   </si>
   <si>
@@ -2359,16 +2359,34 @@
     <t>Net Amount</t>
   </si>
   <si>
-    <t xml:space="preserve">Add 4.5% </t>
-  </si>
-  <si>
-    <t>Gross Amount</t>
-  </si>
-  <si>
     <t>Discount 7%</t>
   </si>
   <si>
     <t>Received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add 5.5% </t>
+  </si>
+  <si>
+    <t>Variation Amount for 1st Floor</t>
+  </si>
+  <si>
+    <t>Variation Amount for Ground Floor</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Add 5.5%</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Payable Amount</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
   </si>
 </sst>
 </file>
@@ -2624,13 +2642,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF231F20"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9.5"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2639,6 +2650,13 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF231F20"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2654,7 +2672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -3141,6 +3159,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3150,7 +3213,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3344,9 +3407,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="35" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3359,9 +3419,6 @@
     <xf numFmtId="166" fontId="35" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3503,7 +3560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3530,7 +3587,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3587,26 +3644,14 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="166" fontId="39" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3633,6 +3678,45 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="42" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3705,16 +3789,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>34699</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>34477</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>61232</xdr:rowOff>
+      <xdr:rowOff>664482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400857</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>70202</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>5571</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3737,8 +3821,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7464199" y="831170"/>
-          <a:ext cx="4088846" cy="5723970"/>
+          <a:off x="8568877" y="1436007"/>
+          <a:ext cx="5838494" cy="8155668"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3803,6 +3887,38 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="quotation 1"/>
+      <sheetName val="quotation 2"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="F19">
+            <v>7596000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="19">
+          <cell r="F19">
+            <v>4220000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4092,27 +4208,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3FB1D5-5CE7-4082-8419-4B7E83483819}">
-  <dimension ref="A1:AP25"/>
+  <dimension ref="A1:AP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:42" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="153" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
+    <row r="3" spans="1:42" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="160" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
@@ -4163,19 +4279,19 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="53" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="151"/>
-      <c r="B6" s="151"/>
+    <row r="6" spans="1:42" s="53" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="146"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="58"/>
     </row>
     <row r="7" spans="1:42" s="53" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-    </row>
-    <row r="8" spans="1:42" s="53" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+    </row>
+    <row r="8" spans="1:42" s="53" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -4193,171 +4309,255 @@
     </row>
     <row r="10" spans="1:42" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="65"/>
     </row>
     <row r="11" spans="1:42" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67">
+      <c r="A11" s="66">
         <v>1</v>
       </c>
-      <c r="B11" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="69">
+      <c r="B11" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="68">
         <f>'Air Conditionioning work'!G18</f>
         <v>1441800</v>
       </c>
     </row>
     <row r="12" spans="1:42" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67">
+      <c r="A12" s="66">
         <v>2</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="68">
         <f>HVAC!G13</f>
         <v>4710750</v>
       </c>
     </row>
     <row r="13" spans="1:42" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67">
-        <v>3</v>
-      </c>
-      <c r="B13" s="68" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="65"/>
+    </row>
+    <row r="14" spans="1:42" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="162"/>
+      <c r="B14" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="69"/>
-    </row>
-    <row r="14" spans="1:42" s="63" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-    </row>
-    <row r="15" spans="1:42" s="63" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="70">
-        <f>SUM(C11:C14)</f>
+      <c r="C14" s="163">
+        <f>SUM(C11:C13)</f>
         <v>6152550</v>
       </c>
     </row>
-    <row r="16" spans="1:42" s="149" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
-      <c r="B16" s="147" t="s">
+    <row r="15" spans="1:42" s="144" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A15" s="164"/>
+      <c r="B15" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="165">
+        <f>C14*7%</f>
+        <v>430678.50000000006</v>
+      </c>
+      <c r="H15" s="145"/>
+    </row>
+    <row r="16" spans="1:42" s="144" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A16" s="164"/>
+      <c r="B16" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="165">
+        <f>C14-C15</f>
+        <v>5721871.5</v>
+      </c>
+      <c r="H16" s="145"/>
+    </row>
+    <row r="17" spans="1:8" s="144" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A17" s="164"/>
+      <c r="B17" s="157" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="165">
+        <f>C16*5.5%</f>
+        <v>314702.9325</v>
+      </c>
+      <c r="H17" s="145"/>
+    </row>
+    <row r="18" spans="1:8" s="144" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A18" s="164"/>
+      <c r="B18" s="157" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="165">
+        <f>C17+C16</f>
+        <v>6036574.4325000001</v>
+      </c>
+      <c r="H18" s="145"/>
+    </row>
+    <row r="19" spans="1:8" s="144" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A19" s="164"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="165"/>
+      <c r="H19" s="145"/>
+    </row>
+    <row r="20" spans="1:8" s="144" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A20" s="164"/>
+      <c r="B20" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="148"/>
-      <c r="H16" s="150"/>
-    </row>
-    <row r="17" spans="1:42" s="149" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="146"/>
-      <c r="B17" s="147" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="148"/>
-      <c r="H17" s="150"/>
-    </row>
-    <row r="18" spans="1:42" s="149" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="146"/>
-      <c r="B18" s="147" t="s">
+      <c r="C20" s="165">
+        <f>'[1]quotation 1'!$F$19</f>
+        <v>7596000</v>
+      </c>
+      <c r="H20" s="145"/>
+    </row>
+    <row r="21" spans="1:8" s="144" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="164"/>
+      <c r="B21" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="165">
+        <f>'[1]quotation 2'!$F$19</f>
+        <v>4220000</v>
+      </c>
+      <c r="H21" s="145"/>
+    </row>
+    <row r="22" spans="1:8" s="144" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A22" s="164"/>
+      <c r="B22" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="165">
+        <f>SUM(C20:C21)</f>
+        <v>11816000</v>
+      </c>
+      <c r="H22" s="145"/>
+    </row>
+    <row r="23" spans="1:8" s="144" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A23" s="164"/>
+      <c r="B23" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="165">
+        <f>C22*5.5%</f>
+        <v>649880</v>
+      </c>
+      <c r="H23" s="145"/>
+    </row>
+    <row r="24" spans="1:8" s="144" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A24" s="164"/>
+      <c r="B24" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="165">
+        <f>C23+C22</f>
+        <v>12465880</v>
+      </c>
+      <c r="H24" s="145"/>
+    </row>
+    <row r="25" spans="1:8" s="144" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="164"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="165"/>
+      <c r="H25" s="145"/>
+    </row>
+    <row r="26" spans="1:8" s="144" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="164"/>
+      <c r="B26" s="157" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="165">
+        <f>C24+C18</f>
+        <v>18502454.432500001</v>
+      </c>
+      <c r="H26" s="145"/>
+    </row>
+    <row r="27" spans="1:8" s="144" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="164"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="165"/>
+      <c r="H27" s="145"/>
+    </row>
+    <row r="28" spans="1:8" s="144" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A28" s="164"/>
+      <c r="B28" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="148">
-        <f>C15*4.5%</f>
-        <v>276864.75</v>
-      </c>
-      <c r="H18" s="150"/>
-    </row>
-    <row r="19" spans="1:42" s="149" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="146"/>
-      <c r="B19" s="147" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="148">
-        <f>C18+C15</f>
-        <v>6429414.75</v>
-      </c>
-      <c r="H19" s="150"/>
-    </row>
-    <row r="20" spans="1:42" s="149" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="146"/>
-      <c r="B20" s="147" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="148">
-        <v>2600000</v>
-      </c>
-      <c r="H20" s="150"/>
-    </row>
-    <row r="21" spans="1:42" s="63" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="148">
-        <f>C19-C20</f>
-        <v>3829414.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-    </row>
-    <row r="23" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-    </row>
-    <row r="24" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-    </row>
-    <row r="25" spans="1:42" ht="391.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="52"/>
+      <c r="C28" s="165">
+        <v>10854400</v>
+      </c>
+      <c r="H28" s="145"/>
+    </row>
+    <row r="29" spans="1:8" s="63" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A29" s="166"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="165"/>
+    </row>
+    <row r="30" spans="1:8" s="144" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="167"/>
+      <c r="B30" s="168" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="169">
+        <f>C26-C28</f>
+        <v>7648054.432500001</v>
+      </c>
+      <c r="H30" s="145"/>
+    </row>
+    <row r="31" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+    </row>
+    <row r="32" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+    </row>
+    <row r="33" spans="1:42" ht="391.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4366,9 +4566,9 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="25" max="2" man="1"/>
+    <brk id="33" max="2" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4378,8 +4578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -4396,26 +4596,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
     </row>
     <row r="2" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4666,16 +4866,16 @@
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="159"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="153"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="70">
         <f>SUM(G5:G17)</f>
         <v>1441800</v>
       </c>
@@ -4733,26 +4933,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4970,11 +5170,11 @@
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="159"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5" t="s">
         <v>48</v>
@@ -5019,26 +5219,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
@@ -5065,12 +5265,12 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="132"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
     </row>
@@ -5078,27 +5278,27 @@
       <c r="A5" s="10">
         <v>1.01</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="133"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="131"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="130">
+      <c r="C6" s="128">
         <v>4</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="134">
+      <c r="E6" s="132">
         <v>108000</v>
       </c>
       <c r="F6" s="11">
@@ -5113,27 +5313,27 @@
       <c r="A7" s="10">
         <v>1.02</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="133"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="130">
+      <c r="C8" s="128">
         <v>4</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="134">
+      <c r="E8" s="132">
         <v>54500</v>
       </c>
       <c r="F8" s="11">
@@ -5148,16 +5348,16 @@
       <c r="A9" s="10">
         <v>1.03</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="130">
+      <c r="C9" s="128">
         <v>4</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E9" s="132">
         <v>12500</v>
       </c>
       <c r="F9" s="11">
@@ -5172,16 +5372,16 @@
       <c r="A10" s="48">
         <v>1.04</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="131">
+      <c r="C10" s="129">
         <v>4</v>
       </c>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="135">
+      <c r="E10" s="133">
         <v>41500</v>
       </c>
       <c r="F10" s="49">
@@ -5193,984 +5393,984 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86">
+      <c r="A11" s="84">
         <v>1.05</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="87">
         <v>5</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="89">
         <v>90000</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="86">
         <v>6000</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="86">
         <f t="shared" ref="G12:G23" si="0">SUM(F12+E12)*C12</f>
         <v>480000</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86">
+      <c r="A13" s="84">
         <v>1.06</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="89">
+      <c r="C13" s="87">
         <v>1</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="89">
         <v>115000</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="86">
         <v>60000</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="86">
         <f t="shared" si="0"/>
         <v>175000</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83">
+      <c r="A14" s="81">
         <v>1.07</v>
       </c>
-      <c r="B14" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="78">
+      <c r="B14" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="76">
         <v>7</v>
       </c>
-      <c r="D14" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="93">
+      <c r="D14" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="91">
         <v>132000</v>
       </c>
-      <c r="F14" s="93">
+      <c r="F14" s="91">
         <v>10000</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="90">
         <f t="shared" si="0"/>
         <v>994000</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="240" x14ac:dyDescent="0.25">
-      <c r="A15" s="82">
+      <c r="A15" s="80">
         <v>1.08</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="77">
+        <v>5</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="79">
-        <v>5</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="93">
+      <c r="E15" s="91">
         <v>51500</v>
       </c>
-      <c r="F15" s="93">
+      <c r="F15" s="91">
         <v>6000</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G15" s="90">
         <f t="shared" si="0"/>
         <v>287500</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="82">
+      <c r="A16" s="80">
         <v>1.0900000000000001</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="77">
         <v>7</v>
       </c>
-      <c r="D16" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="93">
+      <c r="D16" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="91">
         <v>14500</v>
       </c>
-      <c r="F16" s="93">
+      <c r="F16" s="91">
         <v>1000</v>
       </c>
-      <c r="G16" s="93">
+      <c r="G16" s="91">
         <f t="shared" si="0"/>
         <v>108500</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="82">
+      <c r="A17" s="80">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B17" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="79">
+      <c r="B17" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="77">
         <v>5</v>
       </c>
-      <c r="D17" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="93">
+      <c r="D17" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="91">
         <v>45000</v>
       </c>
-      <c r="F17" s="93">
+      <c r="F17" s="91">
         <v>4000</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="90">
         <f t="shared" si="0"/>
         <v>245000</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="82">
+      <c r="A18" s="80">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B18" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="79">
+      <c r="B18" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="77">
         <v>5</v>
       </c>
-      <c r="D18" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="93">
+      <c r="D18" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="91">
         <v>12500</v>
       </c>
-      <c r="F18" s="93">
+      <c r="F18" s="91">
         <v>1000</v>
       </c>
-      <c r="G18" s="92">
+      <c r="G18" s="90">
         <f t="shared" si="0"/>
         <v>67500</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="82">
+      <c r="A19" s="80">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B19" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="79">
+      <c r="B19" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="77">
         <v>7</v>
       </c>
-      <c r="D19" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="93">
+      <c r="D19" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="91">
         <v>11500</v>
       </c>
-      <c r="F19" s="93">
+      <c r="F19" s="91">
         <v>1000</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G19" s="90">
         <f t="shared" si="0"/>
         <v>87500</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="82">
+      <c r="A20" s="80">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B20" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="79">
+      <c r="B20" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="77">
         <v>5</v>
       </c>
-      <c r="D20" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="93">
+      <c r="D20" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="91">
         <v>23000</v>
       </c>
-      <c r="F20" s="93">
+      <c r="F20" s="91">
         <v>1000</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G20" s="90">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82">
+      <c r="A21" s="80">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B21" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="79">
+      <c r="B21" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="77">
         <v>80</v>
       </c>
-      <c r="D21" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="93">
+      <c r="D21" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="91">
         <v>2000</v>
       </c>
-      <c r="F21" s="93">
+      <c r="F21" s="91">
         <v>200</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G21" s="90">
         <f t="shared" si="0"/>
         <v>176000</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82">
+      <c r="A22" s="80">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B22" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="79">
+      <c r="B22" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="77">
         <v>1</v>
       </c>
-      <c r="D22" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="93">
+      <c r="D22" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="91">
         <v>65000</v>
       </c>
-      <c r="F22" s="93">
+      <c r="F22" s="91">
         <v>35000</v>
       </c>
-      <c r="G22" s="92">
+      <c r="G22" s="90">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82">
+      <c r="A23" s="80">
         <v>1.1599999999999999</v>
       </c>
-      <c r="B23" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="79">
+      <c r="B23" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="77">
         <v>1</v>
       </c>
-      <c r="D23" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="93">
+      <c r="D23" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="91">
         <v>27500</v>
       </c>
-      <c r="F23" s="93">
+      <c r="F23" s="91">
         <v>3000</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G23" s="90">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96" t="s">
+      <c r="A24" s="93"/>
+      <c r="B24" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="99"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="97"/>
     </row>
     <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="100">
+      <c r="A25" s="98">
         <v>2.1</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="73" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="101"/>
+      <c r="G25" s="99"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="102"/>
-      <c r="B26" s="75" t="s">
+      <c r="A26" s="100"/>
+      <c r="B26" s="73" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="101"/>
+      <c r="G26" s="99"/>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="102"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="100"/>
+      <c r="B27" s="73" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="101"/>
+      <c r="G27" s="99"/>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="102"/>
-      <c r="B28" s="75" t="s">
+      <c r="A28" s="100"/>
+      <c r="B28" s="73" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="101"/>
+      <c r="G28" s="99"/>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="102"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="100"/>
+      <c r="B29" s="73" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="101"/>
+      <c r="G29" s="99"/>
     </row>
     <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="102"/>
-      <c r="B30" s="75" t="s">
+      <c r="A30" s="100"/>
+      <c r="B30" s="73" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="101"/>
+      <c r="G30" s="99"/>
     </row>
     <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="102"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="100"/>
+      <c r="B31" s="73" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="101"/>
+      <c r="G31" s="99"/>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="102"/>
-      <c r="B32" s="75" t="s">
+      <c r="A32" s="100"/>
+      <c r="B32" s="73" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="101"/>
+      <c r="G32" s="99"/>
     </row>
     <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="102"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="100"/>
+      <c r="B33" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="101"/>
+      <c r="G33" s="99"/>
     </row>
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="102"/>
-      <c r="B34" s="75" t="s">
+      <c r="A34" s="100"/>
+      <c r="B34" s="73" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="101"/>
+      <c r="G34" s="99"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="103"/>
-      <c r="B35" s="104" t="s">
+      <c r="A35" s="101"/>
+      <c r="B35" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="107"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="105"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="108"/>
-      <c r="B36" s="109" t="s">
+      <c r="A36" s="106"/>
+      <c r="B36" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="110">
+      <c r="C36" s="108">
         <v>210</v>
       </c>
-      <c r="D36" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="112">
+      <c r="D36" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="110">
         <v>340</v>
       </c>
-      <c r="F36" s="112">
+      <c r="F36" s="110">
         <v>100</v>
       </c>
-      <c r="G36" s="113">
+      <c r="G36" s="111">
         <f>SUM(F36+E36)*C36</f>
         <v>92400</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="108"/>
-      <c r="B37" s="109" t="s">
+      <c r="A37" s="106"/>
+      <c r="B37" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="110">
+      <c r="C37" s="108">
         <v>180</v>
       </c>
-      <c r="D37" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="112">
+      <c r="D37" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="110">
         <v>570</v>
       </c>
-      <c r="F37" s="112">
+      <c r="F37" s="110">
         <v>100</v>
       </c>
-      <c r="G37" s="113">
+      <c r="G37" s="111">
         <f>SUM(F37+E37)*C37</f>
         <v>120600</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="108"/>
-      <c r="B38" s="109" t="s">
+      <c r="A38" s="106"/>
+      <c r="B38" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="110">
+      <c r="C38" s="108">
         <v>100</v>
       </c>
-      <c r="D38" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="112">
+      <c r="D38" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="110">
         <v>970</v>
       </c>
-      <c r="F38" s="112">
+      <c r="F38" s="110">
         <v>125</v>
       </c>
-      <c r="G38" s="113">
+      <c r="G38" s="111">
         <f>SUM(F38+E38)*C38</f>
         <v>109500</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="108"/>
-      <c r="B39" s="109" t="s">
+      <c r="A39" s="106"/>
+      <c r="B39" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="115"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="113"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="108"/>
-      <c r="B40" s="109" t="s">
+      <c r="A40" s="106"/>
+      <c r="B40" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="110">
+      <c r="C40" s="108">
         <v>100</v>
       </c>
-      <c r="D40" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="112">
+      <c r="D40" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="110">
         <v>1300</v>
       </c>
-      <c r="F40" s="112">
+      <c r="F40" s="110">
         <v>150</v>
       </c>
-      <c r="G40" s="113">
+      <c r="G40" s="111">
         <f>SUM(F40+E40)*C40</f>
         <v>145000</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="116">
+      <c r="A41" s="114">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="99"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="97"/>
     </row>
     <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="102"/>
-      <c r="B42" s="75" t="s">
+      <c r="A42" s="100"/>
+      <c r="B42" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="101"/>
+      <c r="G42" s="99"/>
     </row>
     <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="102"/>
-      <c r="B43" s="75" t="s">
+      <c r="A43" s="100"/>
+      <c r="B43" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="101"/>
+      <c r="G43" s="99"/>
     </row>
     <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="102"/>
-      <c r="B44" s="75" t="s">
+      <c r="A44" s="100"/>
+      <c r="B44" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="101"/>
+      <c r="G44" s="99"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="102"/>
-      <c r="B45" s="75" t="s">
+      <c r="A45" s="100"/>
+      <c r="B45" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="101"/>
+      <c r="G45" s="99"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="103"/>
-      <c r="B46" s="104" t="s">
+      <c r="A46" s="101"/>
+      <c r="B46" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="118">
+      <c r="C46" s="116">
         <v>6</v>
       </c>
-      <c r="D46" s="119" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="142">
+      <c r="D46" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="140">
         <v>11500</v>
       </c>
-      <c r="F46" s="142">
+      <c r="F46" s="140">
         <v>1000</v>
       </c>
-      <c r="G46" s="120">
+      <c r="G46" s="118">
         <f>SUM(F46+E46)*C46</f>
         <v>75000</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="121"/>
-      <c r="B47" s="96" t="s">
+      <c r="A47" s="119"/>
+      <c r="B47" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="99"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="97"/>
     </row>
     <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="100">
+      <c r="A48" s="98">
         <v>3.1</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="101"/>
+      <c r="G48" s="99"/>
     </row>
     <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="102"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="100"/>
+      <c r="B49" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="101"/>
+      <c r="G49" s="99"/>
     </row>
     <row r="50" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="102"/>
-      <c r="B50" s="75" t="s">
+      <c r="A50" s="100"/>
+      <c r="B50" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="101"/>
+      <c r="G50" s="99"/>
     </row>
     <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="102"/>
-      <c r="B51" s="75" t="s">
+      <c r="A51" s="100"/>
+      <c r="B51" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="101"/>
+      <c r="G51" s="99"/>
     </row>
     <row r="52" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="102"/>
-      <c r="B52" s="75" t="s">
+      <c r="A52" s="100"/>
+      <c r="B52" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="101"/>
+      <c r="G52" s="99"/>
     </row>
     <row r="53" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="102"/>
-      <c r="B53" s="75" t="s">
+      <c r="A53" s="100"/>
+      <c r="B53" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="101"/>
+      <c r="G53" s="99"/>
     </row>
     <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="102"/>
-      <c r="B54" s="75" t="s">
+      <c r="A54" s="100"/>
+      <c r="B54" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="101"/>
+      <c r="G54" s="99"/>
     </row>
     <row r="55" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="102"/>
-      <c r="B55" s="75" t="s">
+      <c r="A55" s="100"/>
+      <c r="B55" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="101"/>
+      <c r="G55" s="99"/>
     </row>
     <row r="56" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="102"/>
-      <c r="B56" s="75" t="s">
+      <c r="A56" s="100"/>
+      <c r="B56" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="101"/>
+      <c r="G56" s="99"/>
     </row>
     <row r="57" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="102"/>
-      <c r="B57" s="75" t="s">
+      <c r="A57" s="100"/>
+      <c r="B57" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="101"/>
+      <c r="G57" s="99"/>
     </row>
     <row r="58" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="102"/>
-      <c r="B58" s="75" t="s">
+      <c r="A58" s="100"/>
+      <c r="B58" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="101"/>
+      <c r="G58" s="99"/>
     </row>
     <row r="59" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="102"/>
-      <c r="B59" s="75" t="s">
+      <c r="A59" s="100"/>
+      <c r="B59" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="101"/>
+      <c r="G59" s="99"/>
     </row>
     <row r="60" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="102"/>
-      <c r="B60" s="75" t="s">
+      <c r="A60" s="100"/>
+      <c r="B60" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="101"/>
+      <c r="G60" s="99"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="103"/>
-      <c r="B61" s="104" t="s">
+      <c r="A61" s="101"/>
+      <c r="B61" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="107"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="120"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="105"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="108"/>
-      <c r="B62" s="109" t="s">
+      <c r="A62" s="106"/>
+      <c r="B62" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="110">
+      <c r="C62" s="108">
         <v>60</v>
       </c>
-      <c r="D62" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" s="140">
+      <c r="D62" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="138">
         <v>400</v>
       </c>
-      <c r="F62" s="140">
+      <c r="F62" s="138">
         <v>100</v>
       </c>
-      <c r="G62" s="113">
+      <c r="G62" s="111">
         <f>SUM(F62+E62)*C62</f>
         <v>30000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="108"/>
-      <c r="B63" s="109" t="s">
+      <c r="A63" s="106"/>
+      <c r="B63" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="110">
+      <c r="C63" s="108">
         <v>185</v>
       </c>
-      <c r="D63" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="E63" s="140">
+      <c r="D63" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" s="138">
         <v>850</v>
       </c>
-      <c r="F63" s="140">
+      <c r="F63" s="138">
         <v>125</v>
       </c>
-      <c r="G63" s="113">
+      <c r="G63" s="111">
         <f>SUM(F63+E63)*C63</f>
         <v>180375</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="108"/>
-      <c r="B64" s="109" t="s">
+      <c r="A64" s="106"/>
+      <c r="B64" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="110">
+      <c r="C64" s="108">
         <v>325</v>
       </c>
-      <c r="D64" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="E64" s="140">
+      <c r="D64" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="138">
         <v>1100</v>
       </c>
-      <c r="F64" s="140">
+      <c r="F64" s="138">
         <v>150</v>
       </c>
-      <c r="G64" s="113">
+      <c r="G64" s="111">
         <f>SUM(F64+E64)*C64</f>
         <v>406250</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="116">
+      <c r="A65" s="114">
         <v>3.2</v>
       </c>
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="117"/>
-      <c r="D65" s="117"/>
-      <c r="E65" s="143"/>
-      <c r="F65" s="143"/>
-      <c r="G65" s="144"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="141"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="142"/>
     </row>
     <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="103"/>
-      <c r="B66" s="104"/>
-      <c r="C66" s="118">
+      <c r="A66" s="101"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="116">
         <v>19</v>
       </c>
-      <c r="D66" s="119" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" s="142">
+      <c r="D66" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66" s="140">
         <v>5000</v>
       </c>
-      <c r="F66" s="142">
+      <c r="F66" s="140">
         <v>1000</v>
       </c>
-      <c r="G66" s="120">
+      <c r="G66" s="118">
         <f>SUM(F66+E66)*C66</f>
         <v>114000</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="116">
+      <c r="A67" s="114">
         <v>3.3</v>
       </c>
-      <c r="B67" s="96" t="s">
+      <c r="B67" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="117"/>
-      <c r="D67" s="117"/>
-      <c r="E67" s="143"/>
-      <c r="F67" s="143"/>
-      <c r="G67" s="144"/>
-    </row>
-    <row r="68" spans="1:7" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="123"/>
-      <c r="B68" s="124" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="125">
+      <c r="C67" s="115"/>
+      <c r="D67" s="115"/>
+      <c r="E67" s="141"/>
+      <c r="F67" s="141"/>
+      <c r="G67" s="142"/>
+    </row>
+    <row r="68" spans="1:7" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="121"/>
+      <c r="B68" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="123">
         <v>2</v>
       </c>
-      <c r="D68" s="125" t="s">
-        <v>111</v>
-      </c>
-      <c r="E68" s="139">
+      <c r="D68" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" s="137">
         <v>4000</v>
       </c>
-      <c r="F68" s="139">
+      <c r="F68" s="137">
         <v>1000</v>
       </c>
-      <c r="G68" s="113">
+      <c r="G68" s="111">
         <f>SUM(F68+E68)*C68</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="123"/>
-      <c r="B69" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" s="125">
+    <row r="69" spans="1:7" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="121"/>
+      <c r="B69" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="123">
         <v>4</v>
       </c>
-      <c r="D69" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="E69" s="139">
+      <c r="D69" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="137">
         <v>5000</v>
       </c>
-      <c r="F69" s="139">
+      <c r="F69" s="137">
         <v>1000</v>
       </c>
-      <c r="G69" s="113">
+      <c r="G69" s="111">
         <f>SUM(F69+E69)*C69</f>
         <v>24000</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="126">
+      <c r="A70" s="124">
         <v>3.2</v>
       </c>
-      <c r="B70" s="109" t="s">
+      <c r="B70" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="140"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="145"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="138"/>
+      <c r="F70" s="138"/>
+      <c r="G70" s="143"/>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="108"/>
-      <c r="B71" s="109"/>
-      <c r="C71" s="127">
+      <c r="A71" s="106"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="125">
         <v>4</v>
       </c>
-      <c r="D71" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="140">
+      <c r="D71" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="138">
         <v>135000</v>
       </c>
-      <c r="F71" s="140">
+      <c r="F71" s="138">
         <v>5000</v>
       </c>
-      <c r="G71" s="113">
+      <c r="G71" s="111">
         <f>SUM(F71+E71)*C71</f>
         <v>560000</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="85"/>
-      <c r="B72" s="161" t="s">
+      <c r="A72" s="83"/>
+      <c r="B72" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="161"/>
+      <c r="C72" s="155"/>
       <c r="D72" s="8"/>
       <c r="E72" s="46" t="s">
         <v>46</v>
       </c>
       <c r="F72" s="47"/>
-      <c r="G72" s="141">
+      <c r="G72" s="139">
         <f>SUM(G5:G71)</f>
         <v>5668625</v>
       </c>
